--- a/requirements&planning/burndown_Bas_good.xlsx
+++ b/requirements&planning/burndown_Bas_good.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doria\xampp\htdocs\supermarktBas\requirements&amp;planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6B7114-CFAB-4808-BEB9-A065A24FF4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D301EA5-09EC-47E1-AB03-72BFC511F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Taak</t>
   </si>
@@ -713,19 +713,19 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +2019,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,8 +2335,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
+      <c r="F16" s="2">
+        <v>2</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2352,8 +2352,8 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
+      <c r="F17" s="2">
+        <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2370,8 +2370,8 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
+      <c r="F18" s="2">
+        <v>2</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2388,8 +2388,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
+      <c r="F19" s="2">
+        <v>2</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2406,8 +2406,8 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
+      <c r="F20" s="2">
+        <v>2</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2424,8 +2424,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
+      <c r="F21" s="2">
+        <v>3</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2443,8 +2443,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>32</v>
+      <c r="G22" s="2">
+        <v>2</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2461,8 +2461,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
+      <c r="G23" s="2">
+        <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2846,23 +2846,23 @@
       </c>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2915,6 +2915,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ee5cc40d-188d-403e-9633-08f8bac3798f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDBC7B99A1542448A88F0BEF56468C32" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="10e8bb1a960e06f2f6abd3f3bd89d267">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee5cc40d-188d-403e-9633-08f8bac3798f" xmlns:ns4="8c05537d-a853-4a61-9516-fdd328ed7dea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b34eb290481f9799bcd0fbaa2bf433eb" ns3:_="" ns4:_="">
     <xsd:import namespace="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
@@ -3135,24 +3152,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA3B71A-708C-49DC-BD5C-015D23FB2FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8c05537d-a853-4a61-9516-fdd328ed7dea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ee5cc40d-188d-403e-9633-08f8bac3798f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0EC6FD-3E4E-4AC6-ACE8-BF50A062F634}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3169,29 +3194,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA3B71A-708C-49DC-BD5C-015D23FB2FEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c05537d-a853-4a61-9516-fdd328ed7dea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/requirements&planning/burndown_Bas_good.xlsx
+++ b/requirements&planning/burndown_Bas_good.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doria\xampp\htdocs\supermarktBas\requirements&amp;planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D301EA5-09EC-47E1-AB03-72BFC511F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF534DAE-95C9-4E7A-B4F5-DE7186EBBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Taak</t>
   </si>
@@ -716,16 +716,16 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,10 +1695,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
@@ -2018,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,8 +2475,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
+      <c r="G24" s="2">
+        <v>2</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2497,8 +2493,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
+      <c r="G25" s="2">
+        <v>2</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2515,8 +2511,8 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
+      <c r="G26" s="2">
+        <v>1</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2533,8 +2529,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
+      <c r="G27" s="2">
+        <v>2</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2551,8 +2547,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>32</v>
+      <c r="G28" s="2">
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2850,19 +2846,19 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2923,15 +2919,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDBC7B99A1542448A88F0BEF56468C32" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="10e8bb1a960e06f2f6abd3f3bd89d267">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee5cc40d-188d-403e-9633-08f8bac3798f" xmlns:ns4="8c05537d-a853-4a61-9516-fdd328ed7dea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b34eb290481f9799bcd0fbaa2bf433eb" ns3:_="" ns4:_="">
     <xsd:import namespace="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
@@ -3152,6 +3139,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA3B71A-708C-49DC-BD5C-015D23FB2FEC}">
   <ds:schemaRefs>
@@ -3170,14 +3166,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0EC6FD-3E4E-4AC6-ACE8-BF50A062F634}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3194,4 +3182,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/requirements&planning/burndown_Bas_good.xlsx
+++ b/requirements&planning/burndown_Bas_good.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doria\xampp\htdocs\supermarktBas\requirements&amp;planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF534DAE-95C9-4E7A-B4F5-DE7186EBBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875980A1-9FED-43B6-98DE-AF29E2DC93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Taak</t>
   </si>
@@ -719,13 +719,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,8 +2566,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>32</v>
+      <c r="H29" s="2">
+        <v>2</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="20"/>
@@ -2584,8 +2584,8 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
+      <c r="H30" s="2">
+        <v>2</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="20"/>
@@ -2602,8 +2602,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>32</v>
+      <c r="H31" s="2">
+        <v>2</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="20"/>
@@ -2620,8 +2620,8 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
+      <c r="H32" s="2">
+        <v>2</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="20"/>
@@ -2638,8 +2638,8 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>32</v>
+      <c r="H33" s="2">
+        <v>2</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="20"/>
@@ -2656,8 +2656,8 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>32</v>
+      <c r="H34" s="2">
+        <v>2</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="20"/>
@@ -2850,15 +2850,15 @@
       </c>
       <c r="H44" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,11 +2911,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ee5cc40d-188d-403e-9633-08f8bac3798f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3140,27 +3141,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ee5cc40d-188d-403e-9633-08f8bac3798f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA3B71A-708C-49DC-BD5C-015D23FB2FEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8c05537d-a853-4a61-9516-fdd328ed7dea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3185,9 +3176,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEA3B71A-708C-49DC-BD5C-015D23FB2FEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8c05537d-a853-4a61-9516-fdd328ed7dea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee5cc40d-188d-403e-9633-08f8bac3798f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>